--- a/hardware/super/docs/orcamento.xlsx
+++ b/hardware/super/docs/orcamento.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DBF97C-8367-4A73-BF48-72113441EE25}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2598C97D-86AE-41F4-8E64-9534100884FD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>Dimensão (mm x mm)</t>
   </si>
@@ -216,6 +216,24 @@
   </si>
   <si>
     <t>Casa do Circuito</t>
+  </si>
+  <si>
+    <t>250x180</t>
+  </si>
+  <si>
+    <t>Não informou tamanho máximo</t>
+  </si>
+  <si>
+    <t>292x393</t>
+  </si>
+  <si>
+    <t>franciele@casadocircuito.com.br</t>
+  </si>
+  <si>
+    <t>castaldo@utfpr.edu.br</t>
+  </si>
+  <si>
+    <t>Caxias do Sul - RS</t>
   </si>
 </sst>
 </file>
@@ -619,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +648,7 @@
     <col min="3" max="3" width="20.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
@@ -639,7 +657,7 @@
     <col min="13" max="13" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -724,6 +742,9 @@
       <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="P3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -742,6 +763,29 @@
       </c>
       <c r="G4" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>240</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <f>I4*J4+K4</f>
+        <v>1200</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <f>(1+M4)*L4+N4</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -844,6 +888,29 @@
       <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <v>602.36</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" ref="L5:L11" si="0">I11*J11+K11</f>
+        <v>602.36</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" ref="O5:O11" si="1">(1+M11)*L11+N11</f>
+        <v>602.36</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" s="5"/>
@@ -868,6 +935,9 @@
       <c r="G13" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="P13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
@@ -905,7 +975,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D17" s="5"/>
       <c r="E17" t="s">
         <v>62</v>
@@ -913,11 +983,23 @@
       <c r="F17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" s="5"/>
       <c r="E18" t="s">
         <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -937,9 +1019,11 @@
     <hyperlink ref="G10" r:id="rId13" xr:uid="{83A80A09-E873-45DC-90FC-DEAA46CC3410}"/>
     <hyperlink ref="G13" r:id="rId14" xr:uid="{4128FA31-E919-448A-924E-C7F5CD56561E}"/>
     <hyperlink ref="G16" r:id="rId15" xr:uid="{EDDB9786-9BF3-4FBB-BDBC-91E2C8BF6ABA}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{D1019848-EF6A-402E-9C6F-67CDF188A5BA}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{5A1828F6-8627-431B-8F7F-5F0E48263659}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/hardware/super/docs/orcamento.xlsx
+++ b/hardware/super/docs/orcamento.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2598C97D-86AE-41F4-8E64-9534100884FD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5C7231-F7CD-4D98-8992-386F87A90EB5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,6 +806,23 @@
       <c r="G5" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9">
+        <v>148.1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>206</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" ref="L5:L10" si="0">I5*J5+K5</f>
+        <v>946.5</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" ref="O5:O10" si="1">(1+M5)*L5+N5</f>
+        <v>946.5</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -824,6 +841,14 @@
       </c>
       <c r="G6" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -838,6 +863,14 @@
       <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="L7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="6"/>
@@ -851,6 +884,14 @@
       <c r="G8" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="L8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="6"/>
@@ -864,6 +905,29 @@
       <c r="G9" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9">
+        <v>240</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
@@ -876,6 +940,14 @@
       <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="L10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" s="5"/>
@@ -898,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" ref="L5:L11" si="0">I11*J11+K11</f>
+        <f t="shared" ref="L11:L18" si="2">I11*J11+K11</f>
         <v>602.36</v>
       </c>
       <c r="M11" s="10">
@@ -908,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="9">
-        <f t="shared" ref="O5:O11" si="1">(1+M11)*L11+N11</f>
+        <f t="shared" ref="O11:O18" si="3">(1+M11)*L11+N11</f>
         <v>602.36</v>
       </c>
     </row>
@@ -923,6 +995,14 @@
       <c r="G12" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="L12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D13" s="5"/>
@@ -935,6 +1015,14 @@
       <c r="G13" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="L13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P13" t="s">
         <v>67</v>
       </c>
@@ -950,6 +1038,14 @@
       <c r="G14" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="L14" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15" s="5"/>
@@ -962,6 +1058,14 @@
       <c r="G15" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="L15" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D16" s="5"/>
@@ -974,6 +1078,14 @@
       <c r="G16" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="L16" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D17" s="5"/>
@@ -986,6 +1098,14 @@
       <c r="G17" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="L17" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P17" t="s">
         <v>65</v>
       </c>
@@ -1000,6 +1120,29 @@
       </c>
       <c r="G18" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" s="9">
+        <v>107.16</v>
+      </c>
+      <c r="K18" s="9">
+        <v>100</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="2"/>
+        <v>528.64</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="3"/>
+        <v>581.50400000000002</v>
       </c>
     </row>
   </sheetData>
